--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerome.jaquemet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerome.jaquemet\Desktop\CPNVoiturage\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Finaliser la planif initiale</t>
+  </si>
+  <si>
+    <t>Refonte et mise au propre du MCD</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
   <dimension ref="B1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,9 +976,15 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10">
+        <v>44232</v>
+      </c>
+      <c r="E15" s="11">
+        <v>45</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Fond, Accueil, Nouveau compte, Vue</t>
   </si>
   <si>
-    <t>Début du MCD</t>
-  </si>
-  <si>
     <t>Entrevue pour le premier sprint</t>
   </si>
   <si>
@@ -105,6 +102,24 @@
   </si>
   <si>
     <t>Refonte et mise au propre du MCD</t>
+  </si>
+  <si>
+    <t>Début du MCD-MLD</t>
+  </si>
+  <si>
+    <t>Premiers dessins de MLD</t>
+  </si>
+  <si>
+    <t>Dessins rapides d'un modèle de MLD</t>
+  </si>
+  <si>
+    <t>Refonte et mise au propre du MLD</t>
+  </si>
+  <si>
+    <t>Ajout de la notion d'horaire au MCD et MLD</t>
+  </si>
+  <si>
+    <t>Gestion des periodes d'arrivées et de départ, des villes et de EDT</t>
   </si>
 </sst>
 </file>
@@ -498,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F85" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="C2:F85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F87" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="C2:F87"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -776,17 +791,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F86"/>
+  <dimension ref="B1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="91.5703125" customWidth="1"/>
@@ -878,76 +893,78 @@
         <v>44229</v>
       </c>
       <c r="E7" s="14">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10">
+        <v>44229</v>
+      </c>
+      <c r="E8" s="11">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <v>44231</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>65</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10">
-        <v>44231</v>
-      </c>
-      <c r="E9" s="11">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10">
         <v>44231</v>
       </c>
       <c r="E10" s="11">
-        <v>90</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D11" s="10">
         <v>44231</v>
       </c>
       <c r="E11" s="11">
-        <v>45</v>
-      </c>
-      <c r="F11" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="10">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="E12" s="11">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5"/>
     </row>
@@ -959,51 +976,71 @@
         <v>44232</v>
       </c>
       <c r="E13" s="11">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D14" s="10">
         <v>44232</v>
       </c>
       <c r="E14" s="11">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15" s="10">
         <v>44232</v>
       </c>
       <c r="E15" s="11">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="10">
+        <v>44232</v>
+      </c>
+      <c r="E16" s="11">
+        <v>20</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="10">
+        <v>44232</v>
+      </c>
+      <c r="E17" s="11">
+        <v>25</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10">
+        <v>44235</v>
+      </c>
+      <c r="E18" s="11">
         <v>45</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="9"/>
@@ -1401,11 +1438,23 @@
       <c r="E84" s="11"/>
       <c r="F84" s="5"/>
     </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="9"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="5"/>
+    </row>
     <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="19"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="16"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,30 @@
   </si>
   <si>
     <t>Gestion des periodes d'arrivées et de départ, des villes et de EDT</t>
+  </si>
+  <si>
+    <t>Création des dernières vues</t>
+  </si>
+  <si>
+    <t>Vue de login, pour l'ajout de voiture et de profil</t>
+  </si>
+  <si>
+    <t>Ajouts des permiers tests du site</t>
+  </si>
+  <si>
+    <t>Tests classiques</t>
+  </si>
+  <si>
+    <t>Refonte de la planification</t>
+  </si>
+  <si>
+    <t>Avancement du sprint 1 d'une semaine (avant les vacances)</t>
+  </si>
+  <si>
+    <t>Retouches du MCD sur les relations</t>
+  </si>
+  <si>
+    <t>Finalisation du MCD</t>
   </si>
 </sst>
 </file>
@@ -793,8 +817,8 @@
   </sheetPr>
   <dimension ref="B1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,28 +1067,60 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="5"/>
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="10">
+        <v>44235</v>
+      </c>
+      <c r="E19" s="11">
+        <v>45</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5"/>
+      <c r="C20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10">
+        <v>44235</v>
+      </c>
+      <c r="E20" s="11">
+        <v>45</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="5"/>
+      <c r="C21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="10">
+        <v>44236</v>
+      </c>
+      <c r="E21" s="11">
+        <v>45</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="5"/>
+      <c r="C22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="10">
+        <v>44237</v>
+      </c>
+      <c r="E22" s="11">
+        <v>30</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -144,6 +144,30 @@
   </si>
   <si>
     <t>Finalisation du MCD</t>
+  </si>
+  <si>
+    <t>Mise en place de l'environnement</t>
+  </si>
+  <si>
+    <t>Mise en place de l'environnement (PHP et MCD)</t>
+  </si>
+  <si>
+    <t>Page vues des voitures</t>
+  </si>
+  <si>
+    <t>Création de la structure MVC de base</t>
+  </si>
+  <si>
+    <t>Ajout des fichiers vides avec gestion du gabarit</t>
+  </si>
+  <si>
+    <t>Ajout du tableau qui affiche les voitures</t>
+  </si>
+  <si>
+    <t>Affichage des voitures et préparation du menu pour l'ajout</t>
+  </si>
+  <si>
+    <t>Création de la structure de la page avec la gestion des onglets et le css</t>
   </si>
 </sst>
 </file>
@@ -537,8 +561,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F87" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="C2:F87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F88" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="C2:F88"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -815,10 +839,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F88"/>
+  <dimension ref="B1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,28 +1147,60 @@
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="5"/>
+      <c r="C23" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="10">
+        <v>44541</v>
+      </c>
+      <c r="E23" s="11">
+        <v>45</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="5"/>
+      <c r="C24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="10">
+        <v>44541</v>
+      </c>
+      <c r="E24" s="11">
+        <v>45</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="10">
+        <v>44239</v>
+      </c>
+      <c r="E25" s="11">
+        <v>60</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="5"/>
+      <c r="C26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="10">
+        <v>44239</v>
+      </c>
+      <c r="E26" s="11">
+        <v>60</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>
@@ -1506,11 +1562,17 @@
       <c r="E86" s="11"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="19"/>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="9"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="16"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>Création de la structure de la page avec la gestion des onglets et le css</t>
+  </si>
+  <si>
+    <t>Tests de CSS</t>
+  </si>
+  <si>
+    <t>Tests de css pour des onglets responsive</t>
   </si>
 </sst>
 </file>
@@ -841,8 +847,8 @@
   </sheetPr>
   <dimension ref="B1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,10 +1209,18 @@
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="5"/>
+      <c r="C27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="10">
+        <v>44242</v>
+      </c>
+      <c r="E27" s="11">
+        <v>100</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -173,7 +173,31 @@
     <t>Tests de CSS</t>
   </si>
   <si>
-    <t>Tests de css pour des onglets responsive</t>
+    <t>Tests de css pour avoir des onglets responsive</t>
+  </si>
+  <si>
+    <t>Implémentation complète du gabarit</t>
+  </si>
+  <si>
+    <t>Connecter le gabarit correctement et ajout correct de la vue au choix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création </t>
+  </si>
+  <si>
+    <t>Création et gestion du css de la page du profil</t>
+  </si>
+  <si>
+    <t>Javascript pour disable tous les champs désactivés en fonction des jours</t>
+  </si>
+  <si>
+    <t>JS pour les choxi des jours</t>
+  </si>
+  <si>
+    <t>Création de la page de login et du css</t>
+  </si>
+  <si>
+    <t>Création de la page de login</t>
   </si>
 </sst>
 </file>
@@ -847,8 +871,8 @@
   </sheetPr>
   <dimension ref="B1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,28 +1247,60 @@
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="5"/>
+      <c r="C28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="10">
+        <v>44245</v>
+      </c>
+      <c r="E28" s="11">
+        <v>100</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="5"/>
+      <c r="C29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="10">
+        <v>44245</v>
+      </c>
+      <c r="E29" s="11">
+        <v>100</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="5"/>
+      <c r="C30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="10">
+        <v>44245</v>
+      </c>
+      <c r="E30" s="11">
+        <v>45</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="10">
+        <v>44246</v>
+      </c>
+      <c r="E31" s="11">
+        <v>100</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="9"/>

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1185" windowWidth="21675" windowHeight="10920"/>
+    <workbookView xWindow="4440" yWindow="1185" windowWidth="7785" windowHeight="5565"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -198,6 +198,55 @@
   </si>
   <si>
     <t>Création de la page de login</t>
+  </si>
+  <si>
+    <t>Gestion des liens entre les pages</t>
+  </si>
+  <si>
+    <t>Affichage dynamique des voitures</t>
+  </si>
+  <si>
+    <t>Définition des variables à utiliser pour 
+l'affichage dynamique</t>
+  </si>
+  <si>
+    <t>Gestion des jours et du profil, de façon uniforme</t>
+  </si>
+  <si>
+    <t>Stockages de toutes les données dans des tableaux multidimensionnels</t>
+  </si>
+  <si>
+    <t>Affichage dynamique des tableaux</t>
+  </si>
+  <si>
+    <t>Affichage dynamique des places restantes et des couleurs de lignes</t>
+  </si>
+  <si>
+    <t>Finir l'affichage dynamique des voitures</t>
+  </si>
+  <si>
+    <t>Affichage dynamique du profil</t>
+  </si>
+  <si>
+    <t>Affichage d'un jour de façon dynamique</t>
+  </si>
+  <si>
+    <t>Automatisme des jours de la semaine</t>
+  </si>
+  <si>
+    <t>Gestion d'un tableau pour afficher tous les jours avec une boucle</t>
+  </si>
+  <si>
+    <t>Retouche du css</t>
+  </si>
+  <si>
+    <t>Enlever les couleurs de debug et mise à niveau de la responsivité</t>
+  </si>
+  <si>
+    <t>Création de la base de donnée</t>
+  </si>
+  <si>
+    <t>Création de la DB</t>
   </si>
 </sst>
 </file>
@@ -403,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -455,6 +504,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,8 +923,8 @@
   </sheetPr>
   <dimension ref="B1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,52 +1355,116 @@
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="5"/>
+      <c r="C32" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="10">
+        <v>44256</v>
+      </c>
+      <c r="E32" s="11">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="10">
+        <v>44256</v>
+      </c>
+      <c r="E33" s="11">
+        <v>45</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="5"/>
+      <c r="C34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="10">
+        <v>44256</v>
+      </c>
+      <c r="E34" s="11">
+        <v>45</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="5"/>
+      <c r="C35" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="10">
+        <v>44258</v>
+      </c>
+      <c r="E35" s="11">
+        <v>30</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="5"/>
+      <c r="C36" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="10">
+        <v>44259</v>
+      </c>
+      <c r="E36" s="11">
+        <v>45</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="5"/>
+      <c r="C37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="10">
+        <v>44259</v>
+      </c>
+      <c r="E37" s="11">
+        <v>80</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="5"/>
+      <c r="C38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="10">
+        <v>44259</v>
+      </c>
+      <c r="E38" s="11">
+        <v>30</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="5"/>
+      <c r="C39" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="10">
+        <v>44259</v>
+      </c>
+      <c r="E39" s="11">
+        <v>120</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" s="9"/>

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -247,6 +247,60 @@
   </si>
   <si>
     <t>Création de la DB</t>
+  </si>
+  <si>
+    <t>Remplissage de la base de données</t>
+  </si>
+  <si>
+    <t>Ajout de données de test</t>
+  </si>
+  <si>
+    <t>Sprint 1 review + site en ligne</t>
+  </si>
+  <si>
+    <t>Accès au site en ligne (mycpnv) et cloture du sprint 2</t>
+  </si>
+  <si>
+    <t>Création du DB connetor</t>
+  </si>
+  <si>
+    <t>Tests avec la connexion à la DB et des fonctions de requêtes select et insert</t>
+  </si>
+  <si>
+    <t>Affichage des villes sur les register</t>
+  </si>
+  <si>
+    <t>Gestion du formulaire de register</t>
+  </si>
+  <si>
+    <t>Formulaire HTML et vérification des données coté PHP</t>
+  </si>
+  <si>
+    <t>Requête et hash du password</t>
+  </si>
+  <si>
+    <t>Gestion du formulaire de login</t>
+  </si>
+  <si>
+    <t>Requêtes du register</t>
+  </si>
+  <si>
+    <t>Requêtes du login</t>
+  </si>
+  <si>
+    <t>Requête et password verify</t>
+  </si>
+  <si>
+    <t>Création de la requête pour l'affichage des voitures</t>
+  </si>
+  <si>
+    <t>Création d'une requête unique pour afficher toutes les voitures du jour</t>
+  </si>
+  <si>
+    <t>Sécurisation et gestion des erreurs du login</t>
+  </si>
+  <si>
+    <t>Affichage des erreurs et réaffichage des données envoyées en cas d'erreur</t>
   </si>
 </sst>
 </file>
@@ -452,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -508,6 +562,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,8 +700,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F88" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="C2:F88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F90" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="C2:F90"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -921,10 +978,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F89"/>
+  <dimension ref="B1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,64 +1524,142 @@
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="5"/>
+      <c r="C40" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="10">
+        <v>44263</v>
+      </c>
+      <c r="E40" s="11">
+        <v>60</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="5"/>
+      <c r="C41" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="10">
+        <v>44263</v>
+      </c>
+      <c r="E41" s="11">
+        <v>80</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="5"/>
+      <c r="C42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="10">
+        <v>44266</v>
+      </c>
+      <c r="E42" s="11">
+        <v>60</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
+      <c r="C43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="10">
+        <v>44266</v>
+      </c>
+      <c r="E43" s="11">
+        <v>15</v>
+      </c>
       <c r="F43" s="5"/>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="5"/>
+      <c r="C44" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="10">
+        <v>44266</v>
+      </c>
+      <c r="E44" s="11">
+        <v>30</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="5"/>
+      <c r="C45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="10">
+        <v>44266</v>
+      </c>
+      <c r="E45" s="11">
+        <v>30</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="5"/>
+      <c r="C46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="10">
+        <v>44266</v>
+      </c>
+      <c r="E46" s="11">
+        <v>20</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="5"/>
+      <c r="C47" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="10">
+        <v>44266</v>
+      </c>
+      <c r="E47" s="11">
+        <v>20</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="9"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="5"/>
+      <c r="C48" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="10">
+        <v>44267</v>
+      </c>
+      <c r="E48" s="11">
+        <v>30</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="5"/>
+      <c r="C49" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="10">
+        <v>44267</v>
+      </c>
+      <c r="E49" s="11">
+        <v>60</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" s="9"/>
@@ -1754,11 +1889,26 @@
       <c r="E87" s="11"/>
       <c r="F87" s="5"/>
     </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="5"/>
+    </row>
     <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="19"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="21"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="16"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>Date</t>
   </si>
@@ -301,6 +301,42 @@
   </si>
   <si>
     <t>Affichage des erreurs et réaffichage des données envoyées en cas d'erreur</t>
+  </si>
+  <si>
+    <t>Affichage dynamique des données sur le profil</t>
+  </si>
+  <si>
+    <t>Requetes et création du tableau pour l'affichage du profil</t>
+  </si>
+  <si>
+    <t>Utilisation des Ids des périodes pour le profil</t>
+  </si>
+  <si>
+    <t>Gestion des colonnes nécessaires de csv de EDT</t>
+  </si>
+  <si>
+    <t>Affichage de la page admin</t>
+  </si>
+  <si>
+    <t>Récuperation et processing du csv</t>
+  </si>
+  <si>
+    <t>Récuperation pour préparer la requête de EDT</t>
+  </si>
+  <si>
+    <t>Fin de l'importation de EDT</t>
+  </si>
+  <si>
+    <t>Corrections sur le login</t>
+  </si>
+  <si>
+    <t>3 caractères max (coté client et serveur) pour l'acronyme et ajout du signout</t>
+  </si>
+  <si>
+    <t>Refonte d'une requête</t>
+  </si>
+  <si>
+    <t>Refonte de la requête pour afficher les voitures car il manquait certaines personnes seules</t>
   </si>
 </sst>
 </file>
@@ -980,8 +1016,8 @@
   </sheetPr>
   <dimension ref="B1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,64 +1698,128 @@
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
+      <c r="C50" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="10">
+        <v>44270</v>
+      </c>
+      <c r="E50" s="11">
+        <v>60</v>
+      </c>
       <c r="F50" s="5"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
+      <c r="C51" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="10">
+        <v>44270</v>
+      </c>
+      <c r="E51" s="11">
+        <v>60</v>
+      </c>
       <c r="F51" s="5"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
+      <c r="C52" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="10">
+        <v>44273</v>
+      </c>
+      <c r="E52" s="11">
+        <v>45</v>
+      </c>
       <c r="F52" s="5"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="10">
+        <v>44273</v>
+      </c>
+      <c r="E53" s="11">
+        <v>45</v>
+      </c>
       <c r="F53" s="5"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="9"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
+      <c r="C54" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="10">
+        <v>44273</v>
+      </c>
+      <c r="E54" s="11">
+        <v>30</v>
+      </c>
       <c r="F54" s="5"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
+      <c r="C55" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="10">
+        <v>44273</v>
+      </c>
+      <c r="E55" s="11">
+        <v>80</v>
+      </c>
       <c r="F55" s="5"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
+      <c r="C56" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="10">
+        <v>44273</v>
+      </c>
+      <c r="E56" s="11">
+        <v>45</v>
+      </c>
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="9"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
+      <c r="C57" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="10">
+        <v>44274</v>
+      </c>
+      <c r="E57" s="11">
+        <v>40</v>
+      </c>
       <c r="F57" s="5"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="5"/>
+      <c r="C58" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="10">
+        <v>44274</v>
+      </c>
+      <c r="E58" s="11">
+        <v>15</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="9"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="5"/>
+      <c r="C59" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="10">
+        <v>44274</v>
+      </c>
+      <c r="E59" s="11">
+        <v>70</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C60" s="9"/>

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -337,6 +337,21 @@
   </si>
   <si>
     <t>Refonte de la requête pour afficher les voitures car il manquait certaines personnes seules</t>
+  </si>
+  <si>
+    <t>Corrections des requêtes pour afficher les voitures</t>
+  </si>
+  <si>
+    <t>Correction d'un problème de requête qui donnait des doublons pour les conducteurs</t>
+  </si>
+  <si>
+    <t>Changement du menu si l'on est déjà conducteur</t>
+  </si>
+  <si>
+    <t>Affichage si l'on est conducteur ou si l'on est déjà dans une voiture</t>
+  </si>
+  <si>
+    <t>Fonction pour rejoindre une voiture</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1031,8 @@
   </sheetPr>
   <dimension ref="B1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,21 +1837,43 @@
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="5"/>
+      <c r="C60" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="10">
+        <v>44277</v>
+      </c>
+      <c r="E60" s="11">
+        <v>90</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="9"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="5"/>
+      <c r="C61" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="10">
+        <v>44277</v>
+      </c>
+      <c r="E61" s="11">
+        <v>45</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
+      <c r="C62" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="10">
+        <v>44277</v>
+      </c>
+      <c r="E62" s="11">
+        <v>45</v>
+      </c>
       <c r="F62" s="5"/>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -352,6 +352,57 @@
   </si>
   <si>
     <t>Fonction pour rejoindre une voiture</t>
+  </si>
+  <si>
+    <t>Ajout des fonctions pour ajouter et enlever les voitures</t>
+  </si>
+  <si>
+    <t>Ajout des fonctions pour quitter une voiture</t>
+  </si>
+  <si>
+    <t>Option pour quitter une voiture, affichage dynamique des boutons en fonction des possibilités</t>
+  </si>
+  <si>
+    <t>Possibilité de rejoindre les voitures</t>
+  </si>
+  <si>
+    <t>Possibilité de créer et enlever des voitures</t>
+  </si>
+  <si>
+    <t>Ajout de la requête pour mettre à jour les horaires de EDT</t>
+  </si>
+  <si>
+    <t>Ajout de la requête pour importer les données de EDT</t>
+  </si>
+  <si>
+    <t>Gérer l'import et le traitement de csv en données valides pour le programme</t>
+  </si>
+  <si>
+    <t>Ajout de la requête pour que les utilisateurs puissent charger leurs horaires directement de EDT</t>
+  </si>
+  <si>
+    <t>Ajout de l'algorithme de recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site met en évidence les voitures dont les horaires et la ville de passage correspondent </t>
+  </si>
+  <si>
+    <t>Préparation de données de démonstration et préparation sprint review</t>
+  </si>
+  <si>
+    <t>Début de mise à jour des MCD, MLD et diagramme de site</t>
+  </si>
+  <si>
+    <t>Sprint review finale</t>
+  </si>
+  <si>
+    <t>Correction d'un bug pour l'importation</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Les horaires de départ ne se mettait pas à jour et il y avait un décalage sur les horaires d'arrivée</t>
   </si>
 </sst>
 </file>
@@ -751,8 +802,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F90" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="C2:F90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F91" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="C2:F91"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1029,10 +1080,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F91"/>
+  <dimension ref="B1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,66 +1925,140 @@
       <c r="E62" s="11">
         <v>45</v>
       </c>
-      <c r="F62" s="5"/>
+      <c r="F62" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="5"/>
+      <c r="C63" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="10">
+        <v>44280</v>
+      </c>
+      <c r="E63" s="11">
+        <v>45</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="5"/>
+      <c r="C64" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="10">
+        <v>44280</v>
+      </c>
+      <c r="E64" s="11">
+        <v>60</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="5"/>
+      <c r="C65" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="10">
+        <v>44280</v>
+      </c>
+      <c r="E65" s="11">
+        <v>60</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="9"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="5"/>
+      <c r="C66" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="10">
+        <v>44280</v>
+      </c>
+      <c r="E66" s="11">
+        <v>60</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="5"/>
+      <c r="C67" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="10">
+        <v>44280</v>
+      </c>
+      <c r="E67" s="11">
+        <v>60</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
+      <c r="C68" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="10">
+        <v>44281</v>
+      </c>
+      <c r="E68" s="11">
+        <v>30</v>
+      </c>
       <c r="F68" s="5"/>
     </row>
     <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="9"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
+      <c r="C69" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="10">
+        <v>44281</v>
+      </c>
+      <c r="E69" s="11">
+        <v>45</v>
+      </c>
       <c r="F69" s="5"/>
     </row>
     <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="9"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
+      <c r="C70" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" s="10">
+        <v>44284</v>
+      </c>
+      <c r="E70" s="11">
+        <v>30</v>
+      </c>
       <c r="F70" s="5"/>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="5"/>
+      <c r="C71" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="10">
+        <v>44284</v>
+      </c>
+      <c r="E71" s="11">
+        <v>45</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="9"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
+      <c r="C72" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="10">
+        <v>44284</v>
+      </c>
+      <c r="E72" s="11">
+        <v>60</v>
+      </c>
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
@@ -2039,13 +2164,19 @@
       <c r="F89" s="5"/>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="21"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="5"/>
     </row>
     <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="19"/>
+      <c r="E91" s="21"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="16"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Journal de bord CPNVoiturage.xlsx
+++ b/Documents/Journal de bord CPNVoiturage.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>Date</t>
   </si>
@@ -403,6 +403,15 @@
   </si>
   <si>
     <t>Les horaires de départ ne se mettait pas à jour et il y avait un décalage sur les horaires d'arrivée</t>
+  </si>
+  <si>
+    <t>Fin de la documentation</t>
+  </si>
+  <si>
+    <t>Préparation de données factices finales</t>
+  </si>
+  <si>
+    <t>Mails de rendu</t>
   </si>
 </sst>
 </file>
@@ -802,8 +811,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F91" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="C2:F91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="C2:F77" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="C2:F77"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Tâche" dataDxfId="3"/>
     <tableColumn id="3" name="Date" dataDxfId="2"/>
@@ -1080,10 +1089,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F92"/>
+  <dimension ref="B1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,21 +2071,39 @@
       <c r="F72" s="5"/>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="9"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
+      <c r="C73" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D73" s="10">
+        <v>44287</v>
+      </c>
+      <c r="E73" s="11">
+        <v>150</v>
+      </c>
       <c r="F73" s="5"/>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="9"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
+      <c r="C74" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="10">
+        <v>44287</v>
+      </c>
+      <c r="E74" s="11">
+        <v>30</v>
+      </c>
       <c r="F74" s="5"/>
     </row>
     <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="9"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="11"/>
+      <c r="C75" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D75" s="10">
+        <v>44287</v>
+      </c>
+      <c r="E75" s="11">
+        <v>30</v>
+      </c>
       <c r="F75" s="5"/>
     </row>
     <row r="76" spans="3:6" x14ac:dyDescent="0.25">
@@ -2086,97 +2113,13 @@
       <c r="F76" s="5"/>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="9"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="5"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="9"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="9"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="9"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="5"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="9"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="5"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="9"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="5"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="5"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="9"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="5"/>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="9"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="9"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="5"/>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" s="9"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="9"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="21"/>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="19"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
